--- a/ПМ02/pflfxf.xlsx
+++ b/ПМ02/pflfxf.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t xml:space="preserve">U1=4</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">V4=-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F=</t>
   </si>
 </sst>
 </file>
@@ -171,7 +174,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -195,7 +198,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M27" activeCellId="0" sqref="M27"/>
+      <selection pane="topLeft" activeCell="T10" activeCellId="0" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -784,6 +787,12 @@
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
+      <c r="K30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="2" t="n">
+        <v>10300</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
